--- a/com.myntrajio/src/test/resources/Data/Empdetails.xlsx
+++ b/com.myntrajio/src/test/resources/Data/Empdetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\durga\eclipse-workspace\CJD M10\src\com.myntrajio\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\durga\git\repository\com.myntrajio\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C056738-7F82-4980-BEAA-F6A376DF85AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1CD8BF-9257-4153-A7BA-C58980C0D67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D82FE7A-8B77-4092-94FF-05ED9D899EAE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -127,6 +127,21 @@
   </si>
   <si>
     <t>adminuser5@gmail.com</t>
+  </si>
+  <si>
+    <t>9876543215</t>
+  </si>
+  <si>
+    <t>9876543214</t>
+  </si>
+  <si>
+    <t>9876543212</t>
+  </si>
+  <si>
+    <t>9876543211</t>
+  </si>
+  <si>
+    <t>9876543210</t>
   </si>
 </sst>
 </file>
@@ -185,10 +200,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -507,7 +523,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,8 +564,8 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>9876543210</v>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -568,8 +584,8 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>9876543211</v>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -588,8 +604,8 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>9876543212</v>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -608,8 +624,8 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>9876543214</v>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -628,8 +644,8 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>9876543215</v>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
